--- a/ex_corr/tmpXLS/tmpПетрунин.xlsx
+++ b/ex_corr/tmpXLS/tmpПетрунин.xlsx
@@ -12,14 +12,14 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
   </bookViews>
   <sheets>
-    <sheet name="export_230414_1908" sheetId="1" r:id="rId1"/>
+    <sheet name="export_230418_1014" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="121">
   <si>
     <t>Дата оформления  заявления-квитанции</t>
   </si>
@@ -144,7 +144,7 @@
     <t xml:space="preserve"> ОНПП ТЕХНОЛОГИЯ ИМ. А.Г.РОМАШИНА АО</t>
   </si>
   <si>
-    <t xml:space="preserve"> Принято АРШИНом   </t>
+    <t xml:space="preserve"> Сформировано   </t>
   </si>
   <si>
     <t xml:space="preserve"> ЕМП . .</t>
@@ -199,9 +199,6 @@
   </si>
   <si>
     <t xml:space="preserve"> РОСТЕСТ-МОСКВА ФБУ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Сформировано   </t>
   </si>
   <si>
     <t xml:space="preserve"> Фурье-спектрофотометры инфракрасные</t>
@@ -1481,7 +1478,7 @@
         <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="H3" t="s">
         <v>42</v>
@@ -1490,10 +1487,10 @@
         <v>43</v>
       </c>
       <c r="J3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" t="s">
         <v>61</v>
-      </c>
-      <c r="K3" t="s">
-        <v>62</v>
       </c>
       <c r="L3" t="s">
         <v>43</v>
@@ -1511,7 +1508,7 @@
         <v>573451</v>
       </c>
       <c r="Q3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R3" t="s">
         <v>43</v>
@@ -1526,19 +1523,19 @@
         <v>47</v>
       </c>
       <c r="V3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W3" t="s">
         <v>49</v>
       </c>
       <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
         <v>65</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>66</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>67</v>
       </c>
       <c r="AA3">
         <v>7727061249</v>
@@ -1556,7 +1553,7 @@
         <v>53</v>
       </c>
       <c r="AF3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AG3" t="s">
         <v>43</v>
@@ -1565,16 +1562,16 @@
         <v>573451</v>
       </c>
       <c r="AI3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL3" t="s">
         <v>69</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>70</v>
       </c>
       <c r="AM3" t="s">
         <v>49</v>
@@ -1588,7 +1585,7 @@
         <v>44988</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
         <v>38</v>
@@ -1597,13 +1594,13 @@
         <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G4" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
         <v>42</v>
@@ -1612,7 +1609,7 @@
         <v>43</v>
       </c>
       <c r="J4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K4" s="2">
         <v>45122470812</v>
@@ -1633,7 +1630,7 @@
         <v>574513</v>
       </c>
       <c r="Q4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R4" t="s">
         <v>43</v>
@@ -1648,16 +1645,16 @@
         <v>47</v>
       </c>
       <c r="V4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="W4" t="s">
         <v>49</v>
       </c>
       <c r="X4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y4" t="s">
         <v>76</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>77</v>
       </c>
       <c r="Z4" t="s">
         <v>52</v>
@@ -1678,7 +1675,7 @@
         <v>53</v>
       </c>
       <c r="AF4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AG4" t="s">
         <v>43</v>
@@ -1687,16 +1684,16 @@
         <v>574513</v>
       </c>
       <c r="AI4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL4" t="s">
         <v>79</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>76</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>80</v>
       </c>
       <c r="AM4" t="s">
         <v>49</v>
@@ -1710,7 +1707,7 @@
         <v>44991</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
         <v>38</v>
@@ -1719,13 +1716,13 @@
         <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="H5" t="s">
         <v>42</v>
@@ -1734,10 +1731,10 @@
         <v>43</v>
       </c>
       <c r="J5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K5" t="s">
         <v>83</v>
-      </c>
-      <c r="K5" t="s">
-        <v>84</v>
       </c>
       <c r="L5" t="s">
         <v>43</v>
@@ -1755,7 +1752,7 @@
         <v>574697</v>
       </c>
       <c r="Q5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R5" t="s">
         <v>43</v>
@@ -1770,16 +1767,16 @@
         <v>47</v>
       </c>
       <c r="V5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W5" t="s">
         <v>49</v>
       </c>
       <c r="X5" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y5" t="s">
         <v>87</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>88</v>
       </c>
       <c r="Z5" t="s">
         <v>52</v>
@@ -1797,10 +1794,10 @@
         <v>43</v>
       </c>
       <c r="AE5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF5" t="s">
         <v>89</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>90</v>
       </c>
       <c r="AG5" t="s">
         <v>43</v>
@@ -1809,16 +1806,16 @@
         <v>574697</v>
       </c>
       <c r="AI5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AL5" t="s">
         <v>91</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>88</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>92</v>
       </c>
       <c r="AM5" t="s">
         <v>49</v>
@@ -1832,7 +1829,7 @@
         <v>44991</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
         <v>38</v>
@@ -1841,13 +1838,13 @@
         <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="H6" t="s">
         <v>42</v>
@@ -1856,10 +1853,10 @@
         <v>43</v>
       </c>
       <c r="J6" t="s">
+        <v>93</v>
+      </c>
+      <c r="K6" t="s">
         <v>94</v>
-      </c>
-      <c r="K6" t="s">
-        <v>95</v>
       </c>
       <c r="L6" t="s">
         <v>43</v>
@@ -1877,7 +1874,7 @@
         <v>574697</v>
       </c>
       <c r="Q6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R6" t="s">
         <v>43</v>
@@ -1892,16 +1889,16 @@
         <v>47</v>
       </c>
       <c r="V6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="W6" t="s">
         <v>49</v>
       </c>
       <c r="X6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z6" t="s">
         <v>52</v>
@@ -1922,7 +1919,7 @@
         <v>53</v>
       </c>
       <c r="AF6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AG6" t="s">
         <v>43</v>
@@ -1931,16 +1928,16 @@
         <v>574697</v>
       </c>
       <c r="AI6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AL6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM6" t="s">
         <v>49</v>
@@ -1954,7 +1951,7 @@
         <v>45000</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C7" t="s">
         <v>38</v>
@@ -1963,13 +1960,13 @@
         <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G7" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="H7" t="s">
         <v>42</v>
@@ -1978,7 +1975,7 @@
         <v>43</v>
       </c>
       <c r="J7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K7">
         <v>1352155</v>
@@ -1999,7 +1996,7 @@
         <v>576630</v>
       </c>
       <c r="Q7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R7" t="s">
         <v>43</v>
@@ -2014,16 +2011,16 @@
         <v>47</v>
       </c>
       <c r="V7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="W7" t="s">
         <v>49</v>
       </c>
       <c r="X7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y7" t="s">
         <v>104</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>105</v>
       </c>
       <c r="Z7" t="s">
         <v>52</v>
@@ -2044,7 +2041,7 @@
         <v>53</v>
       </c>
       <c r="AF7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AG7" t="s">
         <v>43</v>
@@ -2053,16 +2050,16 @@
         <v>576630</v>
       </c>
       <c r="AI7" t="s">
+        <v>106</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>103</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL7" t="s">
         <v>107</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>104</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>105</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>108</v>
       </c>
       <c r="AM7" t="s">
         <v>49</v>
@@ -2076,7 +2073,7 @@
         <v>45000</v>
       </c>
       <c r="B8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C8" t="s">
         <v>38</v>
@@ -2085,13 +2082,13 @@
         <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G8" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="H8" t="s">
         <v>42</v>
@@ -2100,7 +2097,7 @@
         <v>43</v>
       </c>
       <c r="J8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K8">
         <v>1334707</v>
@@ -2121,7 +2118,7 @@
         <v>576630</v>
       </c>
       <c r="Q8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R8" t="s">
         <v>43</v>
@@ -2136,16 +2133,16 @@
         <v>47</v>
       </c>
       <c r="V8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="W8" t="s">
         <v>49</v>
       </c>
       <c r="X8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Y8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Z8" t="s">
         <v>52</v>
@@ -2166,7 +2163,7 @@
         <v>53</v>
       </c>
       <c r="AF8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AG8" t="s">
         <v>43</v>
@@ -2175,16 +2172,16 @@
         <v>576630</v>
       </c>
       <c r="AI8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AJ8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AK8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AL8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AM8" t="s">
         <v>49</v>
@@ -2198,7 +2195,7 @@
         <v>45005</v>
       </c>
       <c r="B9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C9" t="s">
         <v>38</v>
@@ -2207,13 +2204,13 @@
         <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G9" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="H9" t="s">
         <v>42</v>
@@ -2222,7 +2219,7 @@
         <v>43</v>
       </c>
       <c r="J9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K9">
         <v>882042</v>
@@ -2243,7 +2240,7 @@
         <v>577917</v>
       </c>
       <c r="Q9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R9" t="s">
         <v>43</v>
@@ -2258,16 +2255,16 @@
         <v>47</v>
       </c>
       <c r="V9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="W9" t="s">
         <v>49</v>
       </c>
       <c r="X9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Y9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Z9" t="s">
         <v>52</v>
@@ -2288,7 +2285,7 @@
         <v>53</v>
       </c>
       <c r="AF9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AG9" t="s">
         <v>43</v>
@@ -2297,16 +2294,16 @@
         <v>577917</v>
       </c>
       <c r="AI9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AJ9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AK9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AL9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AM9" t="s">
         <v>49</v>
